--- a/RCL2015_a_2024.xlsx
+++ b/RCL2015_a_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sefazarquivos\AEMFPF\DIVERSOS\Previs-o-RCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C8DEA4-985D-4091-8661-B6A27E288B96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083B83A4-C0F7-469D-A8C6-F94D78940149}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -233,15 +233,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> RCL_12_MESES </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>RCL_12M</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -890,15 +882,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> RCL_AJUST </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>RCL_12M_AJUSTE</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1611,6 +1595,7 @@
         <c:axId val="2110974991"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="15000000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2356,16 +2341,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2716,8 +2701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5084,7 +5069,7 @@
         <v>3079470281.02</v>
       </c>
       <c r="F102" s="7">
-        <f>SUM(B90:B101)</f>
+        <f t="shared" ref="F102:F114" si="90">SUM(B90:B101)</f>
         <v>37861235583.910004</v>
       </c>
       <c r="G102" s="7">
@@ -5104,7 +5089,7 @@
         <v>2974059131.3800001</v>
       </c>
       <c r="F103" s="7">
-        <f>SUM(B91:B102)</f>
+        <f t="shared" si="90"/>
         <v>37633320557.540001</v>
       </c>
       <c r="G103" s="7">
@@ -5124,7 +5109,7 @@
         <v>3098410551.8600001</v>
       </c>
       <c r="F104" s="7">
-        <f>SUM(B92:B103)</f>
+        <f t="shared" si="90"/>
         <v>37416556452.629997</v>
       </c>
       <c r="G104" s="7">
@@ -5144,7 +5129,7 @@
         <v>3068000923.02</v>
       </c>
       <c r="F105" s="7">
-        <f>SUM(B93:B104)</f>
+        <f t="shared" si="90"/>
         <v>36412268706.770004</v>
       </c>
       <c r="G105" s="7">
@@ -5164,7 +5149,7 @@
         <v>3190626981.0799999</v>
       </c>
       <c r="F106" s="7">
-        <f>SUM(B94:B105)</f>
+        <f t="shared" si="90"/>
         <v>36620725187.709999</v>
       </c>
       <c r="G106" s="7">
@@ -5184,7 +5169,7 @@
         <v>3628394123.96</v>
       </c>
       <c r="F107" s="7">
-        <f>SUM(B95:B106)</f>
+        <f t="shared" si="90"/>
         <v>36920007601.290001</v>
       </c>
       <c r="G107" s="7">
@@ -5204,7 +5189,7 @@
         <v>3734729127.46</v>
       </c>
       <c r="F108" s="7">
-        <f>SUM(B96:B107)</f>
+        <f t="shared" si="90"/>
         <v>37449817173.510002</v>
       </c>
       <c r="G108" s="7">
@@ -5224,7 +5209,7 @@
         <v>3560244022.0100002</v>
       </c>
       <c r="F109" s="7">
-        <f>SUM(B97:B108)</f>
+        <f t="shared" si="90"/>
         <v>38121106013.18</v>
       </c>
       <c r="G109" s="7">
@@ -5244,7 +5229,7 @@
         <v>3244267366.0999999</v>
       </c>
       <c r="F110" s="7">
-        <f>SUM(B98:B109)</f>
+        <f t="shared" si="90"/>
         <v>38407128875.349998</v>
       </c>
       <c r="G110" s="7">
@@ -5264,7 +5249,7 @@
         <v>3194053860.8800001</v>
       </c>
       <c r="F111" s="7">
-        <f>SUM(B99:B110)</f>
+        <f t="shared" si="90"/>
         <v>38750091472.82</v>
       </c>
       <c r="G111" s="7">
@@ -5284,7 +5269,7 @@
         <v>2925237849.8099999</v>
       </c>
       <c r="F112" s="7">
-        <f>SUM(B100:B111)</f>
+        <f t="shared" si="90"/>
         <v>39028769955.299995</v>
       </c>
       <c r="G112" s="7">
@@ -5304,7 +5289,7 @@
         <v>3347740718.0100002</v>
       </c>
       <c r="F113" s="7">
-        <f>SUM(B101:B112)</f>
+        <f t="shared" si="90"/>
         <v>38899265910.469994</v>
       </c>
       <c r="G113" s="7">
@@ -5324,7 +5309,7 @@
         <v>3634893744.9099998</v>
       </c>
       <c r="F114" s="7">
-        <f>SUM(B102:B113)</f>
+        <f t="shared" si="90"/>
         <v>39045234936.590004</v>
       </c>
       <c r="G114" s="7">

--- a/RCL2015_a_2024.xlsx
+++ b/RCL2015_a_2024.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sefazarquivos\AEMFPF\DIVERSOS\Previs-o-RCL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rapha\OneDrive\Documentos\Trabalhos em R\Previs-o-RCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083B83A4-C0F7-469D-A8C6-F94D78940149}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2509B5A-E7F9-4122-996E-201DDE076085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Data</t>
   </si>
@@ -42,16 +55,51 @@
   <si>
     <t>RCL_MES_AJUST</t>
   </si>
+  <si>
+    <t>Filtro Hodrick-Prescott</t>
+  </si>
+  <si>
+    <t>ARIMA</t>
+  </si>
+  <si>
+    <t>Previsão</t>
+  </si>
+  <si>
+    <t>GEPAF (Cen. 323)</t>
+  </si>
+  <si>
+    <t>Diferença</t>
+  </si>
+  <si>
+    <t>ARIMA/Prev. Anterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+GPAF (Cen. 323)</t>
+  </si>
+  <si>
+    <t>24x25</t>
+  </si>
+  <si>
+    <t>25x26</t>
+  </si>
+  <si>
+    <t>26x27</t>
+  </si>
+  <si>
+    <t>Var. a.a(%)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,8 +133,33 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,8 +184,20 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008666"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -163,12 +248,391 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF008666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF008666"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF008666"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF008666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF008666"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF008666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF008666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF008666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF008666"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF008666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF008666"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF008666"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF008666"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF008666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF008666"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF008666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF008666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF008666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF008666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF008666"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF008666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF008666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF008666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF008666"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF008666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF008666"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF008666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF008666"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF008666"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF008666"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF008666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF008666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF008666"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF008666"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF008666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF008666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF008666"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF008666"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF008666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF008666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF008666"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF008666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF008666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF008666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF008666"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF008666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF008666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF008666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF008666"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF008666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF008666"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF008666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF008666"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF008666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF008666"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF008666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF008666"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF008666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF008666"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF008666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF008666"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF008666"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF008666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF008666"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF008666"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF008666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF008666"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF008666"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF008666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF008666"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF008666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF008666"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF008666"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF008666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF008666"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF008666"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF008666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF008666"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF008666"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF008666"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -191,13 +655,159 @@
     <xf numFmtId="43" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF008666"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -230,8 +840,1288 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>RCL_12M</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$14:$A$114</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42491</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42522</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42583</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42705</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42736</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42826</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42856</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42979</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43009</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43040</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43070</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43252</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43282</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43313</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43374</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43405</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43435</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43525</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43586</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43617</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43647</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43678</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43709</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43739</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43770</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43800</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44531</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44652</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44682</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44774</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44805</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44835</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44866</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44896</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44927</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44958</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44986</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45017</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45047</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45078</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45108</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45139</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45170</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45200</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45231</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45261</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45292</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45323</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45383</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45413</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$14:$F$114</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>17361933085.279999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17451185598.119999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17553188907.060001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17715459469.220001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17905792442.360001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18190899656.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18476660716.369999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18682703494.029999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18790157379.709999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18880076798.579998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18728072667.829998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18759693061.449997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19279840731.599998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19309591717.369999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19475205367.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19492776806</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19482828418.900002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19449748683.59</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19440631989.439999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19410439951.689999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19700194585.989998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19937309949.969997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20251754943.709999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20566901058.760002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21033874951.290001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21186087993.73</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21235340617.66</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21361447051.830002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21519731545.190002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21604089892.480003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>21610323578.209999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>21805761993.09</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21777101311.079998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>21765415570.66</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21975936652.91</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21835634881.889999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21298254079.91</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>21480809299.349998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21745250020.809998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21844349614.079998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>22070039186.470001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>22468777328.880001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22662885807.260002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>22800204477.540001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>23022461678.34</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>23344960649.830002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>23524667951.189999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>23928134646</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>24538621316.629997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>24710481157.709999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>24795327536.429996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>24981443610.449997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>24656181038.970005</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>24232538455.890003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>24580721966.560001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>24968835151.410004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>25627246851.740002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>25939840625.250004</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>26188599364.100006</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>26471063872.590004</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>26323342281.460003</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>26729466442.100002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>27119939916.530003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>27532345059.119999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>28271575672.560005</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>28975081376.660004</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>29277832389.650002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>29500156412.109997</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>29706812863.429996</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>30038711645.079994</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>30471033514.119991</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>30945546135.799999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>31545320020.199997</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>31829888387.459999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>32333911024.609993</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>32813361643.369999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>33372360273.259998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>34253161879.179996</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>34897480019.099998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>36433131951.970001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>36421583196.849998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>36611510785.770004</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>36890669787.07</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>36979456565</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>37208349134.319992</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>37383874446.379997</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>37385798447.43</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>37619323304.590004</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>37861235583.910004</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>37633320557.540001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>37416556452.629997</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>36412268706.770004</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>36620725187.709999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>36920007601.290001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>37449817173.510002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>38121106013.18</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>38407128875.349998</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>38750091472.82</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>39028769955.299995</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>38899265910.469994</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>39045234936.590004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8AFF-4642-A1AA-E623709FEC69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>RCL_12M_AJUSTE</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$14:$A$114</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42491</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42522</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42583</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42705</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42736</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42826</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42856</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42979</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43009</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43040</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43070</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43252</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43282</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43313</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43374</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43405</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43435</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43525</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43586</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43617</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43647</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43678</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43709</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43739</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43770</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43800</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44531</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44652</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44682</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44774</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44805</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44835</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44866</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44896</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44927</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44958</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44986</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45017</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45047</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45078</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45108</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45139</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45170</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45200</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45231</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45261</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45292</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45323</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45383</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45413</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$14:$G$114</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>16392815963.369999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16467853242.309999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16557032655.669998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16718617520.010002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16906242312.209999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17182711164.669998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17459802512.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17657905247.580002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17757273937.089996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17844167352.279999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17655381054.739998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17679611748.369999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18194825978.099998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18220828393.030003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18384612175.360001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18396086668.990002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18383002349.27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18345897558.700001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18327064821.639999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18284947192.600002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18565489018.920002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18791760020.009998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19093894250.939999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19398170894.810001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19852048840.890003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19987072860.560001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20019755099.000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20135611095.790001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20275606136.43</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20343991340.230003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20369717408.989998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20538532106.719997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20527906918.979996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20513179544.139999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20674032563.949997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20489695013.529999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>19906780273.890003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20136194556.099998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20383129810.720001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20454245161.239998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20651108319.879997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>21025354821.07</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21167615887.09</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21296316677.809998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21455972732.809998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21717870166.84</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>21899114749.880001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>22233722420.41</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>22798347815.029999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>22929797808.560001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>22990748741.380001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>23152976595.670002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22832574709.889999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>22403882464.529995</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>22741180506.900002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>23121102322.040001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>23781044029.560001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>24109875952.700001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>24363479288.900002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>24714978511.639996</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>24561622290.279999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>24971859670.439995</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>25362216793.499996</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>25777375535.709999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>26503745667.459999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>27199743226.619999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>27496817096.909996</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>27716283800.459995</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>27916127607.549995</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>28249420002.609993</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>28691998001.789993</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>29172812119.439999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>29792223779.029995</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>30069848636.389999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>30549597289.140003</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>31033686486.82</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>31593084462.230003</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>32475927145.119999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>33127940007.180004</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>33489185610.540001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>33483591046.269997</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>33675940817.990002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>33944328717.990002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>34032118879.170006</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>34292740077.91</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>34427695588.43</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>34470430837.899994</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>34680870364.019997</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>34904988701.309998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>34824297621.889992</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>34751979437.269997</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>35072387820.5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>35426990166.349998</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>35870795864.630005</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>36548729160.490005</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>37362687827.279999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>37797107427.590004</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>38284575625.32</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>38694164319.169998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>38735189842.379997</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>39045234936.590004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8AFF-4642-A1AA-E623709FEC69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="2"/>
           <c:tx>
             <c:v>RCL_12M</c:v>
           </c:tx>
@@ -874,13 +2764,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-140B-4672-9521-9325C6762DEF}"/>
+              <c16:uniqueId val="{00000001-8AFF-4642-A1AA-E623709FEC69}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="3"/>
           <c:tx>
             <c:v>RCL_12M_AJUSTE</c:v>
           </c:tx>
@@ -1523,7 +3413,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-140B-4672-9521-9325C6762DEF}"/>
+              <c16:uniqueId val="{00000003-8AFF-4642-A1AA-E623709FEC69}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1682,36 +3572,9 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="pt-BR"/>
-              </a:p>
-            </c:txPr>
           </c:dispUnitsLbl>
         </c:dispUnits>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
@@ -1748,21 +3611,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -1781,576 +3629,1558 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>RCL_12M_AJUSTE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$14:$A$114</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42491</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42522</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42583</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42705</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42736</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42826</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42856</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42979</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43009</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43040</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43070</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43252</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43282</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43313</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43374</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43405</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43435</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43525</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43586</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43617</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43647</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43678</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43709</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43739</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43770</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43800</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44531</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44652</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44682</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44774</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44805</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44835</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44866</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44896</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44927</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44958</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44986</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45017</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45047</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45078</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45108</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45139</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45170</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45200</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45231</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45261</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45292</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45323</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45383</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45413</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$14:$G$114</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>16392815963.369999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16467853242.309999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16557032655.669998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16718617520.010002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16906242312.209999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17182711164.669998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17459802512.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17657905247.580002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17757273937.089996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17844167352.279999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17655381054.739998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17679611748.369999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18194825978.099998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18220828393.030003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18384612175.360001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18396086668.990002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18383002349.27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18345897558.700001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18327064821.639999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18284947192.600002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18565489018.920002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18791760020.009998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19093894250.939999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19398170894.810001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19852048840.890003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19987072860.560001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20019755099.000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20135611095.790001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20275606136.43</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20343991340.230003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20369717408.989998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20538532106.719997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20527906918.979996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20513179544.139999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20674032563.949997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20489695013.529999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>19906780273.890003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20136194556.099998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20383129810.720001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20454245161.239998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20651108319.879997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>21025354821.07</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21167615887.09</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21296316677.809998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21455972732.809998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21717870166.84</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>21899114749.880001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>22233722420.41</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>22798347815.029999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>22929797808.560001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>22990748741.380001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>23152976595.670002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22832574709.889999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>22403882464.529995</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>22741180506.900002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>23121102322.040001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>23781044029.560001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>24109875952.700001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>24363479288.900002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>24714978511.639996</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>24561622290.279999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>24971859670.439995</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>25362216793.499996</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>25777375535.709999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>26503745667.459999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>27199743226.619999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>27496817096.909996</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>27716283800.459995</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>27916127607.549995</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>28249420002.609993</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>28691998001.789993</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>29172812119.439999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>29792223779.029995</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>30069848636.389999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>30549597289.140003</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>31033686486.82</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>31593084462.230003</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>32475927145.119999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>33127940007.180004</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>33489185610.540001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>33483591046.269997</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>33675940817.990002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>33944328717.990002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>34032118879.170006</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>34292740077.91</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>34427695588.43</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>34470430837.899994</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>34680870364.019997</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>34904988701.309998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>34824297621.889992</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>34751979437.269997</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>35072387820.5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>35426990166.349998</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>35870795864.630005</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>36548729160.490005</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>37362687827.279999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>37797107427.590004</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>38284575625.32</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>38694164319.169998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>38735189842.379997</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>39045234936.590004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C9C6-4B51-929F-D0C5CEF4650F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Filtro Hodrick-Prescott</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$14:$A$114</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42491</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42522</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42583</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42705</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42736</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42826</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42856</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42979</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43009</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43040</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43070</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43252</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43282</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43313</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43374</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43405</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43435</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43525</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43586</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43617</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43647</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43678</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43709</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43739</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43770</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43800</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44531</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44652</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44682</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44774</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44805</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44835</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44866</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44896</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44927</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44958</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44986</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45017</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45047</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45078</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45108</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45139</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45170</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45200</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45231</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45261</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45292</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45323</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45383</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45413</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$14:$H$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>16568365512.102489</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16679336519.901739</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16790295336.76009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16901215085.397961</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17012052689.73844</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17122752393.31813</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17233251091.73077</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17343489844.373638</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17453425443.381599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17563036515.29245</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17672322787.233921</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17781303509.308479</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17889996755.109421</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17998413536.302181</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18106586033.248211</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18214561871.785172</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18322407985.12167</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18430203912.355019</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18538033400.52449</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18645974342.061451</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18754089978.801529</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18862418481.250511</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18970984922.625309</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19079809469.30526</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19188920823.039711</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19298369794.01033</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>19408253242.955601</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19518715857.215832</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19629944789.53801</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19742170032.616249</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19855666416.738178</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19970750565.337818</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20087774799.834751</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20207130870.922249</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20329241094.024071</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20454549037.944099</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20583522215.338299</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20716630579.55529</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20854297087.975731</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20996904389.922871</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>21144802414.770309</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>21298303407.2229</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21457685327.67329</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21623207181.751389</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21795107831.3759</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21973603437.736031</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>22158886610.972439</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>22351132201.970951</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>22550497021.904758</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>22757129728.490021</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>22971196191.30344</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>23192874270.76086</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>23422343185.09388</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>23659779381.862228</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>23905318352.48159</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>24159008373.30397</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>24420816877.775379</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>24690639222.532799</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>24968326335.543011</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>25253688813.990318</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>25546495251.791851</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>25846476832.427059</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>26153296345.419781</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>26466555842.990898</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>26785802441.281349</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>27110535396.68837</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>27440234378.33345</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>27774385250.326149</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>28112477806.1315</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>28453997804.391571</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>28798417368.318031</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>29145194414.33075</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>29493779468.61581</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>29843624975.255508</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>30194204103.631451</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>30545005733.1017</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>30895543423.10667</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>31245364669.25021</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>31594065407.486141</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>31941327029.49572</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>32286937446.029652</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>32630792058.01791</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>32972869367.334888</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>33313220455.630001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>33651963867.007549</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>33989268069.07349</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>34325346027.78175</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>34660441155.44178</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>34994806939.697029</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>35328698286.886032</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>35662363865.969627</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>35996017318.084717</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>36329809063.227303</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>36663825380.456062</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>36998089853.072937</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>37332570992.885742</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>37667206106.098602</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>38001934590.362503</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>38336704864.25351</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>38671484974.197357</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>39006267790.193062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C9C6-4B51-929F-D0C5CEF4650F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2017517231"/>
+        <c:axId val="2110974991"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="2017517231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-416]mmm\-yy;@" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2110974991"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+        <c:majorUnit val="1"/>
+        <c:majorTimeUnit val="years"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="2110974991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="15000000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2017517231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="billions"/>
+          <c:dispUnitsLbl>
+            <c:tx>
+              <c:rich>
+                <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:r>
+                    <a:rPr lang="pt-BR"/>
+                    <a:t>Bilhões em R$</a:t>
+                  </a:r>
+                </a:p>
+              </c:rich>
+            </c:tx>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
         <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2375,13 +5205,51 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9F83F44-3C1D-4594-9BCC-FD7D286D193C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2419,9 +5287,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2454,26 +5322,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2506,26 +5357,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2699,10 +5533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:S121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="H12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2714,9 +5548,10 @@
     <col min="5" max="5" width="16.28515625" style="4" customWidth="1"/>
     <col min="6" max="6" width="17" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2738,8 +5573,11 @@
       <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>42005</v>
       </c>
@@ -2755,8 +5593,21 @@
         <v>1337053431.05</v>
       </c>
       <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K2" s="18"/>
+      <c r="L2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>42036</v>
       </c>
@@ -2772,8 +5623,15 @@
         <v>1278092520.1800001</v>
       </c>
       <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K3" s="18"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>42064</v>
       </c>
@@ -2789,8 +5647,23 @@
         <v>1252266301.02</v>
       </c>
       <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K4" s="12">
+        <v>2024</v>
+      </c>
+      <c r="L4" s="13">
+        <v>41.32</v>
+      </c>
+      <c r="M4" s="13">
+        <v>41.52</v>
+      </c>
+      <c r="N4" s="14">
+        <v>-0.19600000000000001</v>
+      </c>
+      <c r="O4" s="15">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>42095</v>
       </c>
@@ -2806,8 +5679,23 @@
         <v>1336812393.3700001</v>
       </c>
       <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K5" s="16">
+        <v>2025</v>
+      </c>
+      <c r="L5" s="13">
+        <v>45.63</v>
+      </c>
+      <c r="M5" s="13">
+        <v>44.03</v>
+      </c>
+      <c r="N5" s="13">
+        <v>1.601</v>
+      </c>
+      <c r="O5" s="17">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>42125</v>
       </c>
@@ -2823,8 +5711,23 @@
         <v>1328017596.8700001</v>
       </c>
       <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K6" s="16">
+        <v>2026</v>
+      </c>
+      <c r="L6" s="13">
+        <v>49.48</v>
+      </c>
+      <c r="M6" s="13">
+        <v>45.27</v>
+      </c>
+      <c r="N6" s="13">
+        <v>4.2119999999999997</v>
+      </c>
+      <c r="O6" s="17">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>42156</v>
       </c>
@@ -2840,8 +5743,23 @@
         <v>1333746795.73</v>
       </c>
       <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K7" s="16">
+        <v>2027</v>
+      </c>
+      <c r="L7" s="13">
+        <v>53.48</v>
+      </c>
+      <c r="M7" s="13">
+        <v>47.45</v>
+      </c>
+      <c r="N7" s="13">
+        <v>6.0369999999999999</v>
+      </c>
+      <c r="O7" s="17">
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>42186</v>
       </c>
@@ -2858,7 +5776,7 @@
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>42217</v>
       </c>
@@ -2875,7 +5793,7 @@
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>42248</v>
       </c>
@@ -2891,8 +5809,19 @@
         <v>1332012717.4100001</v>
       </c>
       <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M10" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="R10" s="45"/>
+      <c r="S10" s="48"/>
+    </row>
+    <row r="11" spans="1:19" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>42278</v>
       </c>
@@ -2908,8 +5837,31 @@
         <v>1530446056.48</v>
       </c>
       <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="42">
+        <v>2024</v>
+      </c>
+      <c r="N11" s="12">
+        <v>2025</v>
+      </c>
+      <c r="O11" s="12">
+        <v>2026</v>
+      </c>
+      <c r="P11" s="43">
+        <v>2027</v>
+      </c>
+      <c r="Q11" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="R11" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="S11" s="35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>42309</v>
       </c>
@@ -2925,8 +5877,36 @@
         <v>1521889501.49</v>
       </c>
       <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K12" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="31"/>
+      <c r="M12" s="36">
+        <v>41.32</v>
+      </c>
+      <c r="N12" s="13">
+        <v>45.63</v>
+      </c>
+      <c r="O12" s="13">
+        <v>49.48</v>
+      </c>
+      <c r="P12" s="37">
+        <v>53.48</v>
+      </c>
+      <c r="Q12" s="49">
+        <f>(N12-M12)/M12</f>
+        <v>0.10430784123910944</v>
+      </c>
+      <c r="R12" s="23">
+        <f t="shared" ref="R12:T13" si="1">(O12-N12)/N12</f>
+        <v>8.4374315143545778E-2</v>
+      </c>
+      <c r="S12" s="50">
+        <f t="shared" si="1"/>
+        <v>8.084074373484236E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>42339</v>
       </c>
@@ -2942,8 +5922,36 @@
         <v>1448344953.9400001</v>
       </c>
       <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K13" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="24"/>
+      <c r="M13" s="36">
+        <v>41.52</v>
+      </c>
+      <c r="N13" s="13">
+        <v>44.03</v>
+      </c>
+      <c r="O13" s="13">
+        <v>45.27</v>
+      </c>
+      <c r="P13" s="37">
+        <v>47.45</v>
+      </c>
+      <c r="Q13" s="51">
+        <f>(N13-M13)/M13</f>
+        <v>6.0452793834296671E-2</v>
+      </c>
+      <c r="R13" s="52">
+        <f t="shared" si="1"/>
+        <v>2.816261639791056E-2</v>
+      </c>
+      <c r="S13" s="53">
+        <f t="shared" si="1"/>
+        <v>4.8155511376187309E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>42370</v>
       </c>
@@ -2966,8 +5974,27 @@
         <f>SUM(E2:E13)</f>
         <v>16392815963.369999</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>16568365512.102489</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="25"/>
+      <c r="M14" s="38">
+        <v>-0.19600000000000001</v>
+      </c>
+      <c r="N14" s="13">
+        <v>1.601</v>
+      </c>
+      <c r="O14" s="13">
+        <v>4.2119999999999997</v>
+      </c>
+      <c r="P14" s="37">
+        <v>6.0369999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>42401</v>
       </c>
@@ -2983,15 +6010,34 @@
         <v>1367271933.54</v>
       </c>
       <c r="F15" s="7">
-        <f t="shared" ref="F15" si="1">SUM(B3:B14)</f>
+        <f t="shared" ref="F15" si="2">SUM(B3:B14)</f>
         <v>17451185598.119999</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" ref="G15:G78" si="2">SUM(E3:E14)</f>
+        <f t="shared" ref="G15:G78" si="3">SUM(E3:E14)</f>
         <v>16467853242.309999</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>16679336519.901739</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="32"/>
+      <c r="M15" s="39">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="N15" s="40">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="O15" s="40">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="P15" s="41">
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>42430</v>
       </c>
@@ -3007,15 +6053,18 @@
         <v>1413851165.3600001</v>
       </c>
       <c r="F16" s="7">
-        <f t="shared" ref="F16" si="3">SUM(B4:B15)</f>
+        <f t="shared" ref="F16" si="4">SUM(B4:B15)</f>
         <v>17553188907.060001</v>
       </c>
       <c r="G16" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16557032655.669998</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>16790295336.76009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>42461</v>
       </c>
@@ -3031,15 +6080,18 @@
         <v>1524437185.5699999</v>
       </c>
       <c r="F17" s="7">
-        <f t="shared" ref="F17" si="4">SUM(B5:B16)</f>
+        <f t="shared" ref="F17" si="5">SUM(B5:B16)</f>
         <v>17715459469.220001</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16718617520.010002</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>16901215085.397961</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>42491</v>
       </c>
@@ -3055,15 +6107,18 @@
         <v>1604486449.3299999</v>
       </c>
       <c r="F18" s="7">
-        <f t="shared" ref="F18" si="5">SUM(B6:B17)</f>
+        <f t="shared" ref="F18" si="6">SUM(B6:B17)</f>
         <v>17905792442.360001</v>
       </c>
       <c r="G18" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16906242312.209999</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>17012052689.73844</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>42522</v>
       </c>
@@ -3079,15 +6134,18 @@
         <v>1610838143.5599999</v>
       </c>
       <c r="F19" s="7">
-        <f t="shared" ref="F19" si="6">SUM(B7:B18)</f>
+        <f t="shared" ref="F19" si="7">SUM(B7:B18)</f>
         <v>18190899656.5</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17182711164.669998</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>17122752393.31813</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>42552</v>
       </c>
@@ -3103,15 +6161,19 @@
         <v>1561970187.1700001</v>
       </c>
       <c r="F20" s="7">
-        <f t="shared" ref="F20" si="7">SUM(B8:B19)</f>
+        <f t="shared" ref="F20" si="8">SUM(B8:B19)</f>
         <v>18476660716.369999</v>
       </c>
       <c r="G20" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17459802512.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>17233251091.73077</v>
+      </c>
+      <c r="M20" s="30"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>42583</v>
       </c>
@@ -3127,15 +6189,18 @@
         <v>1429634933.25</v>
       </c>
       <c r="F21" s="7">
-        <f t="shared" ref="F21" si="8">SUM(B9:B20)</f>
+        <f t="shared" ref="F21" si="9">SUM(B9:B20)</f>
         <v>18682703494.029999</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17657905247.580002</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>17343489844.373638</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>42614</v>
       </c>
@@ -3151,15 +6216,18 @@
         <v>1418906132.5999999</v>
       </c>
       <c r="F22" s="7">
-        <f t="shared" ref="F22" si="9">SUM(B10:B21)</f>
+        <f t="shared" ref="F22" si="10">SUM(B10:B21)</f>
         <v>18790157379.709999</v>
       </c>
       <c r="G22" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17757273937.089996</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>17453425443.381599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>42644</v>
       </c>
@@ -3175,15 +6243,18 @@
         <v>1341659758.9400001</v>
       </c>
       <c r="F23" s="7">
-        <f t="shared" ref="F23" si="10">SUM(B11:B22)</f>
+        <f t="shared" ref="F23" si="11">SUM(B11:B22)</f>
         <v>18880076798.579998</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17844167352.279999</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>17563036515.29245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>42675</v>
       </c>
@@ -3199,15 +6270,18 @@
         <v>1546120195.1199999</v>
       </c>
       <c r="F24" s="7">
-        <f t="shared" ref="F24" si="11">SUM(B12:B23)</f>
+        <f t="shared" ref="F24" si="12">SUM(B12:B23)</f>
         <v>18728072667.829998</v>
       </c>
       <c r="G24" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17655381054.739998</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>17672322787.233921</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>42705</v>
       </c>
@@ -3223,15 +6297,18 @@
         <v>1963559183.6699998</v>
       </c>
       <c r="F25" s="7">
-        <f t="shared" ref="F25" si="12">SUM(B13:B24)</f>
+        <f t="shared" ref="F25" si="13">SUM(B13:B24)</f>
         <v>18759693061.449997</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17679611748.369999</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>17781303509.308479</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>42736</v>
       </c>
@@ -3247,15 +6324,18 @@
         <v>1438093124.9200001</v>
       </c>
       <c r="F26" s="7">
-        <f t="shared" ref="F26" si="13">SUM(B14:B25)</f>
+        <f t="shared" ref="F26" si="14">SUM(B14:B25)</f>
         <v>19279840731.599998</v>
       </c>
       <c r="G26" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18194825978.099998</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>17889996755.109421</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>42767</v>
       </c>
@@ -3271,15 +6351,18 @@
         <v>1531055715.8700001</v>
       </c>
       <c r="F27" s="7">
-        <f t="shared" ref="F27" si="14">SUM(B15:B26)</f>
+        <f t="shared" ref="F27" si="15">SUM(B15:B26)</f>
         <v>19309591717.369999</v>
       </c>
       <c r="G27" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18220828393.030003</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>17998413536.302181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>42795</v>
       </c>
@@ -3295,15 +6378,18 @@
         <v>1425325658.99</v>
       </c>
       <c r="F28" s="7">
-        <f t="shared" ref="F28" si="15">SUM(B16:B27)</f>
+        <f t="shared" ref="F28" si="16">SUM(B16:B27)</f>
         <v>19475205367.07</v>
       </c>
       <c r="G28" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18384612175.360001</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>18106586033.248211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>42826</v>
       </c>
@@ -3319,15 +6405,18 @@
         <v>1511352865.8499999</v>
       </c>
       <c r="F29" s="7">
-        <f t="shared" ref="F29" si="16">SUM(B17:B28)</f>
+        <f t="shared" ref="F29" si="17">SUM(B17:B28)</f>
         <v>19492776806</v>
       </c>
       <c r="G29" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18396086668.990002</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>18214561871.785172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>42856</v>
       </c>
@@ -3343,15 +6432,18 @@
         <v>1567381658.76</v>
       </c>
       <c r="F30" s="7">
-        <f t="shared" ref="F30" si="17">SUM(B18:B29)</f>
+        <f t="shared" ref="F30" si="18">SUM(B18:B29)</f>
         <v>19482828418.900002</v>
       </c>
       <c r="G30" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18383002349.27</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>18322407985.12167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>42887</v>
       </c>
@@ -3367,15 +6459,18 @@
         <v>1592005406.5</v>
       </c>
       <c r="F31" s="7">
-        <f t="shared" ref="F31" si="18">SUM(B19:B30)</f>
+        <f t="shared" ref="F31" si="19">SUM(B19:B30)</f>
         <v>19449748683.59</v>
       </c>
       <c r="G31" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18345897558.700001</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>18430203912.355019</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>42917</v>
       </c>
@@ -3391,15 +6486,18 @@
         <v>1519852558.1300001</v>
       </c>
       <c r="F32" s="7">
-        <f t="shared" ref="F32" si="19">SUM(B20:B31)</f>
+        <f t="shared" ref="F32" si="20">SUM(B20:B31)</f>
         <v>19440631989.439999</v>
       </c>
       <c r="G32" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18327064821.639999</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>18538033400.52449</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>42948</v>
       </c>
@@ -3415,15 +6513,18 @@
         <v>1710176759.5699999</v>
       </c>
       <c r="F33" s="7">
-        <f t="shared" ref="F33" si="20">SUM(B21:B32)</f>
+        <f t="shared" ref="F33" si="21">SUM(B21:B32)</f>
         <v>19410439951.689999</v>
       </c>
       <c r="G33" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18284947192.600002</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>18645974342.061451</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>42979</v>
       </c>
@@ -3439,15 +6540,18 @@
         <v>1645177133.6899998</v>
       </c>
       <c r="F34" s="7">
-        <f t="shared" ref="F34" si="21">SUM(B22:B33)</f>
+        <f t="shared" ref="F34" si="22">SUM(B22:B33)</f>
         <v>19700194585.989998</v>
       </c>
       <c r="G34" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18565489018.920002</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>18754089978.801529</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>43009</v>
       </c>
@@ -3463,15 +6567,18 @@
         <v>1643793989.8700001</v>
       </c>
       <c r="F35" s="7">
-        <f t="shared" ref="F35" si="22">SUM(B23:B34)</f>
+        <f t="shared" ref="F35" si="23">SUM(B23:B34)</f>
         <v>19937309949.969997</v>
       </c>
       <c r="G35" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18791760020.009998</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>18862418481.250511</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>43040</v>
       </c>
@@ -3487,15 +6594,18 @@
         <v>1850396838.99</v>
       </c>
       <c r="F36" s="7">
-        <f t="shared" ref="F36" si="23">SUM(B24:B35)</f>
+        <f t="shared" ref="F36" si="24">SUM(B24:B35)</f>
         <v>20251754943.709999</v>
       </c>
       <c r="G36" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19093894250.939999</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>18970984922.625309</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>43070</v>
       </c>
@@ -3511,15 +6621,18 @@
         <v>2417437129.75</v>
       </c>
       <c r="F37" s="7">
-        <f t="shared" ref="F37" si="24">SUM(B25:B36)</f>
+        <f t="shared" ref="F37" si="25">SUM(B25:B36)</f>
         <v>20566901058.760002</v>
       </c>
       <c r="G37" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19398170894.810001</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>19079809469.30526</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>43101</v>
       </c>
@@ -3535,15 +6648,18 @@
         <v>1573117144.5900002</v>
       </c>
       <c r="F38" s="7">
-        <f t="shared" ref="F38" si="25">SUM(B26:B37)</f>
+        <f t="shared" ref="F38" si="26">SUM(B26:B37)</f>
         <v>21033874951.290001</v>
       </c>
       <c r="G38" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19852048840.890003</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>19188920823.039711</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>43132</v>
       </c>
@@ -3559,15 +6675,18 @@
         <v>1563737954.3099999</v>
       </c>
       <c r="F39" s="7">
-        <f t="shared" ref="F39" si="26">SUM(B27:B38)</f>
+        <f t="shared" ref="F39" si="27">SUM(B27:B38)</f>
         <v>21186087993.73</v>
       </c>
       <c r="G39" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19987072860.560001</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>19298369794.01033</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>43160</v>
       </c>
@@ -3583,15 +6702,18 @@
         <v>1541181655.78</v>
       </c>
       <c r="F40" s="7">
-        <f t="shared" ref="F40" si="27">SUM(B28:B39)</f>
+        <f t="shared" ref="F40" si="28">SUM(B28:B39)</f>
         <v>21235340617.66</v>
       </c>
       <c r="G40" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20019755099.000004</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>19408253242.955601</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>43191</v>
       </c>
@@ -3607,15 +6729,18 @@
         <v>1651347906.49</v>
       </c>
       <c r="F41" s="7">
-        <f t="shared" ref="F41" si="28">SUM(B29:B40)</f>
+        <f t="shared" ref="F41" si="29">SUM(B29:B40)</f>
         <v>21361447051.830002</v>
       </c>
       <c r="G41" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20135611095.790001</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>19518715857.215832</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>43221</v>
       </c>
@@ -3631,15 +6756,18 @@
         <v>1635766862.5599999</v>
       </c>
       <c r="F42" s="7">
-        <f t="shared" ref="F42" si="29">SUM(B30:B41)</f>
+        <f t="shared" ref="F42" si="30">SUM(B30:B41)</f>
         <v>21519731545.190002</v>
       </c>
       <c r="G42" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20275606136.43</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>19629944789.53801</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>43252</v>
       </c>
@@ -3655,15 +6783,18 @@
         <v>1617731475.26</v>
       </c>
       <c r="F43" s="7">
-        <f t="shared" ref="F43" si="30">SUM(B31:B42)</f>
+        <f t="shared" ref="F43" si="31">SUM(B31:B42)</f>
         <v>21604089892.480003</v>
       </c>
       <c r="G43" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20343991340.230003</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <v>19742170032.616249</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43282</v>
       </c>
@@ -3679,15 +6810,18 @@
         <v>1688667255.8599999</v>
       </c>
       <c r="F44" s="7">
-        <f t="shared" ref="F44" si="31">SUM(B32:B43)</f>
+        <f t="shared" ref="F44" si="32">SUM(B32:B43)</f>
         <v>21610323578.209999</v>
       </c>
       <c r="G44" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20369717408.989998</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>19855666416.738178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>43313</v>
       </c>
@@ -3703,15 +6837,18 @@
         <v>1699551571.8299999</v>
       </c>
       <c r="F45" s="7">
-        <f t="shared" ref="F45" si="32">SUM(B33:B44)</f>
+        <f t="shared" ref="F45" si="33">SUM(B33:B44)</f>
         <v>21805761993.09</v>
       </c>
       <c r="G45" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20538532106.719997</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>19970750565.337818</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>43344</v>
       </c>
@@ -3727,15 +6864,18 @@
         <v>1630449758.8500001</v>
       </c>
       <c r="F46" s="7">
-        <f t="shared" ref="F46" si="33">SUM(B34:B45)</f>
+        <f t="shared" ref="F46" si="34">SUM(B34:B45)</f>
         <v>21777101311.079998</v>
       </c>
       <c r="G46" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20527906918.979996</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>20087774799.834751</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>43374</v>
       </c>
@@ -3751,15 +6891,18 @@
         <v>1804647009.6800001</v>
       </c>
       <c r="F47" s="7">
-        <f t="shared" ref="F47" si="34">SUM(B35:B46)</f>
+        <f t="shared" ref="F47" si="35">SUM(B35:B46)</f>
         <v>21765415570.66</v>
       </c>
       <c r="G47" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20513179544.139999</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <v>20207130870.922249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>43405</v>
       </c>
@@ -3775,15 +6918,18 @@
         <v>1666059288.5700002</v>
       </c>
       <c r="F48" s="7">
-        <f t="shared" ref="F48" si="35">SUM(B36:B47)</f>
+        <f t="shared" ref="F48" si="36">SUM(B36:B47)</f>
         <v>21975936652.91</v>
       </c>
       <c r="G48" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20674032563.949997</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>20329241094.024071</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>43435</v>
       </c>
@@ -3799,15 +6945,18 @@
         <v>1834522390.1099999</v>
       </c>
       <c r="F49" s="7">
-        <f t="shared" ref="F49" si="36">SUM(B37:B48)</f>
+        <f t="shared" ref="F49" si="37">SUM(B37:B48)</f>
         <v>21835634881.889999</v>
       </c>
       <c r="G49" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20489695013.529999</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <v>20454549037.944099</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>43466</v>
       </c>
@@ -3823,15 +6972,18 @@
         <v>1802531426.8</v>
       </c>
       <c r="F50" s="7">
-        <f t="shared" ref="F50" si="37">SUM(B38:B49)</f>
+        <f t="shared" ref="F50" si="38">SUM(B38:B49)</f>
         <v>21298254079.91</v>
       </c>
       <c r="G50" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19906780273.890003</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <v>20583522215.338299</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>43497</v>
       </c>
@@ -3847,15 +6999,18 @@
         <v>1810673208.9299998</v>
       </c>
       <c r="F51" s="7">
-        <f t="shared" ref="F51" si="38">SUM(B39:B50)</f>
+        <f t="shared" ref="F51" si="39">SUM(B39:B50)</f>
         <v>21480809299.349998</v>
       </c>
       <c r="G51" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20136194556.099998</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <v>20716630579.55529</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>43525</v>
       </c>
@@ -3871,15 +7026,18 @@
         <v>1612297006.3</v>
       </c>
       <c r="F52" s="7">
-        <f t="shared" ref="F52" si="39">SUM(B40:B51)</f>
+        <f t="shared" ref="F52" si="40">SUM(B40:B51)</f>
         <v>21745250020.809998</v>
       </c>
       <c r="G52" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20383129810.720001</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <v>20854297087.975731</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>43556</v>
       </c>
@@ -3895,15 +7053,18 @@
         <v>1848211065.1300001</v>
       </c>
       <c r="F53" s="7">
-        <f t="shared" ref="F53" si="40">SUM(B41:B52)</f>
+        <f t="shared" ref="F53" si="41">SUM(B41:B52)</f>
         <v>21844349614.079998</v>
       </c>
       <c r="G53" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20454245161.239998</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <v>20996904389.922871</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>43586</v>
       </c>
@@ -3919,15 +7080,18 @@
         <v>2010013363.75</v>
       </c>
       <c r="F54" s="7">
-        <f t="shared" ref="F54" si="41">SUM(B42:B53)</f>
+        <f t="shared" ref="F54" si="42">SUM(B42:B53)</f>
         <v>22070039186.470001</v>
       </c>
       <c r="G54" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20651108319.879997</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <v>21144802414.770309</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>43617</v>
       </c>
@@ -3943,15 +7107,18 @@
         <v>1759992541.28</v>
       </c>
       <c r="F55" s="7">
-        <f t="shared" ref="F55" si="42">SUM(B43:B54)</f>
+        <f t="shared" ref="F55" si="43">SUM(B43:B54)</f>
         <v>22468777328.880001</v>
       </c>
       <c r="G55" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21025354821.07</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <v>21298303407.2229</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>43647</v>
       </c>
@@ -3967,15 +7134,18 @@
         <v>1817368046.5799999</v>
       </c>
       <c r="F56" s="7">
-        <f t="shared" ref="F56" si="43">SUM(B44:B55)</f>
+        <f t="shared" ref="F56" si="44">SUM(B44:B55)</f>
         <v>22662885807.260002</v>
       </c>
       <c r="G56" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21167615887.09</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <v>21457685327.67329</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>43678</v>
       </c>
@@ -3991,15 +7161,18 @@
         <v>1859207626.8299999</v>
       </c>
       <c r="F57" s="7">
-        <f t="shared" ref="F57" si="44">SUM(B45:B56)</f>
+        <f t="shared" ref="F57" si="45">SUM(B45:B56)</f>
         <v>22800204477.540001</v>
       </c>
       <c r="G57" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21296316677.809998</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <v>21623207181.751389</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>43709</v>
       </c>
@@ -4015,15 +7188,18 @@
         <v>1892347192.8800001</v>
       </c>
       <c r="F58" s="7">
-        <f t="shared" ref="F58" si="45">SUM(B46:B57)</f>
+        <f t="shared" ref="F58" si="46">SUM(B46:B57)</f>
         <v>23022461678.34</v>
       </c>
       <c r="G58" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21455972732.809998</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <v>21795107831.3759</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>43739</v>
       </c>
@@ -4039,15 +7215,18 @@
         <v>1985891592.72</v>
       </c>
       <c r="F59" s="7">
-        <f t="shared" ref="F59" si="46">SUM(B47:B58)</f>
+        <f t="shared" ref="F59" si="47">SUM(B47:B58)</f>
         <v>23344960649.830002</v>
       </c>
       <c r="G59" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21717870166.84</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <v>21973603437.736031</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>43770</v>
       </c>
@@ -4063,15 +7242,18 @@
         <v>2000666959.1000001</v>
       </c>
       <c r="F60" s="7">
-        <f t="shared" ref="F60" si="47">SUM(B48:B59)</f>
+        <f t="shared" ref="F60" si="48">SUM(B48:B59)</f>
         <v>23524667951.189999</v>
       </c>
       <c r="G60" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21899114749.880001</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <v>22158886610.972439</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>43800</v>
       </c>
@@ -4087,15 +7269,18 @@
         <v>2399147784.73</v>
       </c>
       <c r="F61" s="7">
-        <f t="shared" ref="F61" si="48">SUM(B49:B60)</f>
+        <f t="shared" ref="F61" si="49">SUM(B49:B60)</f>
         <v>23928134646</v>
       </c>
       <c r="G61" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22233722420.41</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <v>22351132201.970951</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>43831</v>
       </c>
@@ -4111,15 +7296,18 @@
         <v>1933981420.3300002</v>
       </c>
       <c r="F62" s="7">
-        <f t="shared" ref="F62" si="49">SUM(B50:B61)</f>
+        <f t="shared" ref="F62" si="50">SUM(B50:B61)</f>
         <v>24538621316.629997</v>
       </c>
       <c r="G62" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22798347815.029999</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <v>22550497021.904758</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>43862</v>
       </c>
@@ -4135,15 +7323,18 @@
         <v>1871624141.75</v>
       </c>
       <c r="F63" s="7">
-        <f t="shared" ref="F63" si="50">SUM(B51:B62)</f>
+        <f t="shared" ref="F63" si="51">SUM(B51:B62)</f>
         <v>24710481157.709999</v>
       </c>
       <c r="G63" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22929797808.560001</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63">
+        <v>22757129728.490021</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>43891</v>
       </c>
@@ -4159,15 +7350,18 @@
         <v>1774524860.5900002</v>
       </c>
       <c r="F64" s="7">
-        <f t="shared" ref="F64" si="51">SUM(B52:B63)</f>
+        <f t="shared" ref="F64" si="52">SUM(B52:B63)</f>
         <v>24795327536.429996</v>
       </c>
       <c r="G64" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22990748741.380001</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64">
+        <v>22971196191.30344</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>43922</v>
       </c>
@@ -4183,15 +7377,18 @@
         <v>1527809179.3499999</v>
       </c>
       <c r="F65" s="7">
-        <f t="shared" ref="F65" si="52">SUM(B53:B64)</f>
+        <f t="shared" ref="F65" si="53">SUM(B53:B64)</f>
         <v>24981443610.449997</v>
       </c>
       <c r="G65" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23152976595.670002</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65">
+        <v>23192874270.76086</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>43952</v>
       </c>
@@ -4207,15 +7404,18 @@
         <v>1581321118.3899999</v>
       </c>
       <c r="F66" s="7">
-        <f t="shared" ref="F66" si="53">SUM(B54:B65)</f>
+        <f t="shared" ref="F66" si="54">SUM(B54:B65)</f>
         <v>24656181038.970005</v>
       </c>
       <c r="G66" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22832574709.889999</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66">
+        <v>23422343185.09388</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>43983</v>
       </c>
@@ -4227,19 +7427,22 @@
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
-        <f t="shared" ref="E67:E121" si="54">B67-C67-D67</f>
+        <f t="shared" ref="E67:E121" si="55">B67-C67-D67</f>
         <v>2097290583.6500001</v>
       </c>
       <c r="F67" s="7">
-        <f t="shared" ref="F67" si="55">SUM(B55:B66)</f>
+        <f t="shared" ref="F67" si="56">SUM(B55:B66)</f>
         <v>24232538455.890003</v>
       </c>
       <c r="G67" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22403882464.529995</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67">
+        <v>23659779381.862228</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>44013</v>
       </c>
@@ -4251,19 +7454,22 @@
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2197289861.7199998</v>
       </c>
       <c r="F68" s="7">
-        <f t="shared" ref="F68" si="56">SUM(B56:B67)</f>
+        <f t="shared" ref="F68" si="57">SUM(B56:B67)</f>
         <v>24580721966.560001</v>
       </c>
       <c r="G68" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22741180506.900002</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68">
+        <v>23905318352.48159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>44044</v>
       </c>
@@ -4275,19 +7481,22 @@
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2519149334.3499999</v>
       </c>
       <c r="F69" s="7">
-        <f t="shared" ref="F69" si="57">SUM(B57:B68)</f>
+        <f t="shared" ref="F69" si="58">SUM(B57:B68)</f>
         <v>24968835151.410004</v>
       </c>
       <c r="G69" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23121102322.040001</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69">
+        <v>24159008373.30397</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>44075</v>
       </c>
@@ -4299,19 +7508,22 @@
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2221179116.02</v>
       </c>
       <c r="F70" s="7">
-        <f t="shared" ref="F70" si="58">SUM(B58:B69)</f>
+        <f t="shared" ref="F70" si="59">SUM(B58:B69)</f>
         <v>25627246851.740002</v>
       </c>
       <c r="G70" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23781044029.560001</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70">
+        <v>24420816877.775379</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>44105</v>
       </c>
@@ -4323,19 +7535,22 @@
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2239494928.9200001</v>
       </c>
       <c r="F71" s="7">
-        <f t="shared" ref="F71" si="59">SUM(B59:B70)</f>
+        <f t="shared" ref="F71" si="60">SUM(B59:B70)</f>
         <v>25939840625.250004</v>
       </c>
       <c r="G71" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24109875952.700001</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71">
+        <v>24690639222.532799</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>44136</v>
       </c>
@@ -4347,19 +7562,22 @@
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2352166181.8399997</v>
       </c>
       <c r="F72" s="7">
-        <f t="shared" ref="F72" si="60">SUM(B60:B71)</f>
+        <f t="shared" ref="F72" si="61">SUM(B60:B71)</f>
         <v>26188599364.100006</v>
       </c>
       <c r="G72" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24363479288.900002</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72">
+        <v>24968326335.543011</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>44166</v>
       </c>
@@ -4371,19 +7589,22 @@
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2245791563.3699999</v>
       </c>
       <c r="F73" s="7">
-        <f t="shared" ref="F73" si="61">SUM(B61:B72)</f>
+        <f t="shared" ref="F73" si="62">SUM(B61:B72)</f>
         <v>26471063872.590004</v>
       </c>
       <c r="G73" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24714978511.639996</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73">
+        <v>25253688813.990318</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>44197</v>
       </c>
@@ -4395,19 +7616,22 @@
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2344218800.4899998</v>
       </c>
       <c r="F74" s="7">
-        <f t="shared" ref="F74" si="62">SUM(B62:B73)</f>
+        <f t="shared" ref="F74" si="63">SUM(B62:B73)</f>
         <v>26323342281.460003</v>
       </c>
       <c r="G74" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24561622290.279999</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74">
+        <v>25546495251.791851</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>44228</v>
       </c>
@@ -4419,19 +7643,22 @@
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2261981264.8099999</v>
       </c>
       <c r="F75" s="7">
-        <f t="shared" ref="F75" si="63">SUM(B63:B74)</f>
+        <f t="shared" ref="F75" si="64">SUM(B63:B74)</f>
         <v>26729466442.100002</v>
       </c>
       <c r="G75" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24971859670.439995</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75">
+        <v>25846476832.427059</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>44256</v>
       </c>
@@ -4443,19 +7670,22 @@
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2189683602.7999997</v>
       </c>
       <c r="F76" s="7">
-        <f t="shared" ref="F76" si="64">SUM(B64:B75)</f>
+        <f t="shared" ref="F76" si="65">SUM(B64:B75)</f>
         <v>27119939916.530003</v>
       </c>
       <c r="G76" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25362216793.499996</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76">
+        <v>26153296345.419781</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>44287</v>
       </c>
@@ -4467,19 +7697,22 @@
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2254179311.0999999</v>
       </c>
       <c r="F77" s="7">
-        <f t="shared" ref="F77" si="65">SUM(B65:B76)</f>
+        <f t="shared" ref="F77" si="66">SUM(B65:B76)</f>
         <v>27532345059.119999</v>
       </c>
       <c r="G77" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25777375535.709999</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77">
+        <v>26466555842.990898</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>44317</v>
       </c>
@@ -4491,19 +7724,22 @@
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2277318677.5499997</v>
       </c>
       <c r="F78" s="7">
-        <f t="shared" ref="F78" si="66">SUM(B66:B77)</f>
+        <f t="shared" ref="F78" si="67">SUM(B66:B77)</f>
         <v>28271575672.560005</v>
       </c>
       <c r="G78" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26503745667.459999</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78">
+        <v>26785802441.281349</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>44348</v>
       </c>
@@ -4515,19 +7751,22 @@
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2394364453.9400001</v>
       </c>
       <c r="F79" s="7">
-        <f t="shared" ref="F79" si="67">SUM(B67:B78)</f>
+        <f t="shared" ref="F79" si="68">SUM(B67:B78)</f>
         <v>28975081376.660004</v>
       </c>
       <c r="G79" s="7">
-        <f t="shared" ref="G79:G114" si="68">SUM(E67:E78)</f>
+        <f t="shared" ref="G79:G114" si="69">SUM(E67:E78)</f>
         <v>27199743226.619999</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79">
+        <v>27110535396.68837</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>44378</v>
       </c>
@@ -4539,19 +7778,22 @@
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2416756565.27</v>
       </c>
       <c r="F80" s="7">
-        <f t="shared" ref="F80" si="69">SUM(B68:B79)</f>
+        <f t="shared" ref="F80" si="70">SUM(B68:B79)</f>
         <v>29277832389.650002</v>
       </c>
       <c r="G80" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>27496817096.909996</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80">
+        <v>27440234378.33345</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>44409</v>
       </c>
@@ -4563,19 +7805,22 @@
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2718993141.4399996</v>
       </c>
       <c r="F81" s="7">
-        <f t="shared" ref="F81" si="70">SUM(B69:B80)</f>
+        <f t="shared" ref="F81" si="71">SUM(B69:B80)</f>
         <v>29500156412.109997</v>
       </c>
       <c r="G81" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>27716283800.459995</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81">
+        <v>27774385250.326149</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>44440</v>
       </c>
@@ -4587,19 +7832,22 @@
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2554471511.0799999</v>
       </c>
       <c r="F82" s="7">
-        <f t="shared" ref="F82" si="71">SUM(B70:B81)</f>
+        <f t="shared" ref="F82" si="72">SUM(B70:B81)</f>
         <v>29706812863.429996</v>
       </c>
       <c r="G82" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>27916127607.549995</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82">
+        <v>28112477806.1315</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>44470</v>
       </c>
@@ -4611,19 +7859,22 @@
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2682072928.0999999</v>
       </c>
       <c r="F83" s="7">
-        <f t="shared" ref="F83" si="72">SUM(B71:B82)</f>
+        <f t="shared" ref="F83" si="73">SUM(B71:B82)</f>
         <v>30038711645.079994</v>
       </c>
       <c r="G83" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>28249420002.609993</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83">
+        <v>28453997804.391571</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>44501</v>
       </c>
@@ -4635,19 +7886,22 @@
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2832980299.4900002</v>
       </c>
       <c r="F84" s="7">
-        <f t="shared" ref="F84" si="73">SUM(B72:B83)</f>
+        <f t="shared" ref="F84" si="74">SUM(B72:B83)</f>
         <v>30471033514.119991</v>
       </c>
       <c r="G84" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>28691998001.789993</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84">
+        <v>28798417368.318031</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>44531</v>
       </c>
@@ -4659,19 +7913,22 @@
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2865203222.96</v>
       </c>
       <c r="F85" s="7">
-        <f t="shared" ref="F85" si="74">SUM(B73:B84)</f>
+        <f t="shared" ref="F85" si="75">SUM(B73:B84)</f>
         <v>30945546135.799999</v>
       </c>
       <c r="G85" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>29172812119.439999</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85">
+        <v>29145194414.33075</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>44562</v>
       </c>
@@ -4683,19 +7940,22 @@
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2621843657.8500004</v>
       </c>
       <c r="F86" s="7">
-        <f t="shared" ref="F86" si="75">SUM(B74:B85)</f>
+        <f t="shared" ref="F86" si="76">SUM(B74:B85)</f>
         <v>31545320020.199997</v>
       </c>
       <c r="G86" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>29792223779.029995</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86">
+        <v>29493779468.61581</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>44593</v>
       </c>
@@ -4707,19 +7967,22 @@
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2741729917.5599999</v>
       </c>
       <c r="F87" s="7">
-        <f t="shared" ref="F87" si="76">SUM(B75:B86)</f>
+        <f t="shared" ref="F87" si="77">SUM(B75:B86)</f>
         <v>31829888387.459999</v>
       </c>
       <c r="G87" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>30069848636.389999</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87">
+        <v>29843624975.255508</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>44621</v>
       </c>
@@ -4731,19 +7994,22 @@
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2673772800.48</v>
       </c>
       <c r="F88" s="7">
-        <f t="shared" ref="F88" si="77">SUM(B76:B87)</f>
+        <f t="shared" ref="F88" si="78">SUM(B76:B87)</f>
         <v>32333911024.609993</v>
       </c>
       <c r="G88" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>30549597289.140003</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88">
+        <v>30194204103.631451</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>44652</v>
       </c>
@@ -4755,19 +8021,22 @@
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2813577286.5100002</v>
       </c>
       <c r="F89" s="7">
-        <f t="shared" ref="F89" si="78">SUM(B77:B88)</f>
+        <f t="shared" ref="F89" si="79">SUM(B77:B88)</f>
         <v>32813361643.369999</v>
       </c>
       <c r="G89" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>31033686486.82</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89">
+        <v>30545005733.1017</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>44682</v>
       </c>
@@ -4779,19 +8048,22 @@
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>3160161360.4400001</v>
       </c>
       <c r="F90" s="7">
-        <f t="shared" ref="F90" si="79">SUM(B78:B89)</f>
+        <f t="shared" ref="F90" si="80">SUM(B78:B89)</f>
         <v>33372360273.259998</v>
       </c>
       <c r="G90" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>31593084462.230003</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90">
+        <v>30895543423.10667</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>44713</v>
       </c>
@@ -4803,19 +8075,22 @@
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>3046377316</v>
       </c>
       <c r="F91" s="7">
-        <f t="shared" ref="F91" si="80">SUM(B79:B90)</f>
+        <f t="shared" ref="F91" si="81">SUM(B79:B90)</f>
         <v>34253161879.179996</v>
       </c>
       <c r="G91" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>32475927145.119999</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91">
+        <v>31245364669.25021</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>44743</v>
       </c>
@@ -4833,15 +8108,18 @@
         <v>2778002168.6299996</v>
       </c>
       <c r="F92" s="7">
-        <f t="shared" ref="F92" si="81">SUM(B80:B91)</f>
+        <f t="shared" ref="F92" si="82">SUM(B80:B91)</f>
         <v>34897480019.099998</v>
       </c>
       <c r="G92" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>33127940007.180004</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92">
+        <v>31594065407.486141</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>44774</v>
       </c>
@@ -4861,11 +8139,14 @@
         <v>36433131951.970001</v>
       </c>
       <c r="G93" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>33489185610.540001</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93">
+        <v>31941327029.49572</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>44805</v>
       </c>
@@ -4877,19 +8158,22 @@
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2746821282.8000002</v>
       </c>
       <c r="F94" s="7">
-        <f t="shared" ref="F94" si="82">SUM(B82:B93)</f>
+        <f t="shared" ref="F94" si="83">SUM(B82:B93)</f>
         <v>36421583196.849998</v>
       </c>
       <c r="G94" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>33483591046.269997</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94">
+        <v>32286937446.029652</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>44835</v>
       </c>
@@ -4901,19 +8185,22 @@
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2950460828.0999999</v>
       </c>
       <c r="F95" s="7">
-        <f t="shared" ref="F95" si="83">SUM(B83:B94)</f>
+        <f t="shared" ref="F95" si="84">SUM(B83:B94)</f>
         <v>36611510785.770004</v>
       </c>
       <c r="G95" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>33675940817.990002</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95">
+        <v>32630792058.01791</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>44866</v>
       </c>
@@ -4925,19 +8212,22 @@
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2920770460.6700001</v>
       </c>
       <c r="F96" s="7">
-        <f t="shared" ref="F96" si="84">SUM(B84:B95)</f>
+        <f t="shared" ref="F96" si="85">SUM(B84:B95)</f>
         <v>36890669787.07</v>
       </c>
       <c r="G96" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>33944328717.990002</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96">
+        <v>32972869367.334888</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>44896</v>
       </c>
@@ -4949,19 +8239,22 @@
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>3125824421.7000003</v>
       </c>
       <c r="F97" s="7">
-        <f t="shared" ref="F97" si="85">SUM(B85:B96)</f>
+        <f t="shared" ref="F97" si="86">SUM(B85:B96)</f>
         <v>36979456565</v>
       </c>
       <c r="G97" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>34032118879.170006</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97">
+        <v>33313220455.630001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>44927</v>
       </c>
@@ -4973,19 +8266,22 @@
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2756799168.3699999</v>
       </c>
       <c r="F98" s="7">
-        <f t="shared" ref="F98" si="86">SUM(B86:B97)</f>
+        <f t="shared" ref="F98" si="87">SUM(B86:B97)</f>
         <v>37208349134.319992</v>
       </c>
       <c r="G98" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>34292740077.91</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98">
+        <v>33651963867.007549</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>44958</v>
       </c>
@@ -4997,19 +8293,22 @@
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2784465167.0300002</v>
       </c>
       <c r="F99" s="7">
-        <f t="shared" ref="F99" si="87">SUM(B87:B98)</f>
+        <f t="shared" ref="F99" si="88">SUM(B87:B98)</f>
         <v>37383874446.379997</v>
       </c>
       <c r="G99" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>34427695588.43</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99">
+        <v>33989268069.07349</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>44986</v>
       </c>
@@ -5021,19 +8320,22 @@
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2884212326.5999999</v>
       </c>
       <c r="F100" s="7">
-        <f t="shared" ref="F100" si="88">SUM(B88:B99)</f>
+        <f t="shared" ref="F100" si="89">SUM(B88:B99)</f>
         <v>37385798447.43</v>
       </c>
       <c r="G100" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>34470430837.899994</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100">
+        <v>34325346027.78175</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>45017</v>
       </c>
@@ -5045,19 +8347,22 @@
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>3037695623.7999997</v>
       </c>
       <c r="F101" s="7">
-        <f t="shared" ref="F101" si="89">SUM(B89:B100)</f>
+        <f t="shared" ref="F101" si="90">SUM(B89:B100)</f>
         <v>37619323304.590004</v>
       </c>
       <c r="G101" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>34680870364.019997</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101">
+        <v>34660441155.44178</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>45047</v>
       </c>
@@ -5065,19 +8370,22 @@
         <v>3079470281.02</v>
       </c>
       <c r="E102" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>3079470281.02</v>
       </c>
       <c r="F102" s="7">
-        <f t="shared" ref="F102:F114" si="90">SUM(B90:B101)</f>
+        <f t="shared" ref="F102:F114" si="91">SUM(B90:B101)</f>
         <v>37861235583.910004</v>
       </c>
       <c r="G102" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>34904988701.309998</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102">
+        <v>34994806939.697029</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>45078</v>
       </c>
@@ -5085,19 +8393,22 @@
         <v>2974059131.3800001</v>
       </c>
       <c r="E103" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2974059131.3800001</v>
       </c>
       <c r="F103" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>37633320557.540001</v>
       </c>
       <c r="G103" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>34824297621.889992</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103">
+        <v>35328698286.886032</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>45108</v>
       </c>
@@ -5105,19 +8416,22 @@
         <v>3098410551.8600001</v>
       </c>
       <c r="E104" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>3098410551.8600001</v>
       </c>
       <c r="F104" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>37416556452.629997</v>
       </c>
       <c r="G104" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>34751979437.269997</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104">
+        <v>35662363865.969627</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>45139</v>
       </c>
@@ -5125,19 +8439,22 @@
         <v>3068000923.02</v>
       </c>
       <c r="E105" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>3068000923.02</v>
       </c>
       <c r="F105" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>36412268706.770004</v>
       </c>
       <c r="G105" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>35072387820.5</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105">
+        <v>35996017318.084717</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>45170</v>
       </c>
@@ -5145,19 +8462,22 @@
         <v>3190626981.0799999</v>
       </c>
       <c r="E106" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>3190626981.0799999</v>
       </c>
       <c r="F106" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>36620725187.709999</v>
       </c>
       <c r="G106" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>35426990166.349998</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106">
+        <v>36329809063.227303</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>45200</v>
       </c>
@@ -5165,19 +8485,22 @@
         <v>3628394123.96</v>
       </c>
       <c r="E107" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>3628394123.96</v>
       </c>
       <c r="F107" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>36920007601.290001</v>
       </c>
       <c r="G107" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>35870795864.630005</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107">
+        <v>36663825380.456062</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>45231</v>
       </c>
@@ -5185,19 +8508,22 @@
         <v>3734729127.46</v>
       </c>
       <c r="E108" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>3734729127.46</v>
       </c>
       <c r="F108" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>37449817173.510002</v>
       </c>
       <c r="G108" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>36548729160.490005</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108">
+        <v>36998089853.072937</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>45261</v>
       </c>
@@ -5205,19 +8531,22 @@
         <v>3560244022.0100002</v>
       </c>
       <c r="E109" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>3560244022.0100002</v>
       </c>
       <c r="F109" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>38121106013.18</v>
       </c>
       <c r="G109" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>37362687827.279999</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109">
+        <v>37332570992.885742</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>45292</v>
       </c>
@@ -5225,19 +8554,22 @@
         <v>3244267366.0999999</v>
       </c>
       <c r="E110" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>3244267366.0999999</v>
       </c>
       <c r="F110" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>38407128875.349998</v>
       </c>
       <c r="G110" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>37797107427.590004</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110">
+        <v>37667206106.098602</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>45323</v>
       </c>
@@ -5245,19 +8577,22 @@
         <v>3194053860.8800001</v>
       </c>
       <c r="E111" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>3194053860.8800001</v>
       </c>
       <c r="F111" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>38750091472.82</v>
       </c>
       <c r="G111" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>38284575625.32</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H111">
+        <v>38001934590.362503</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>45352</v>
       </c>
@@ -5265,19 +8600,22 @@
         <v>2925237849.8099999</v>
       </c>
       <c r="E112" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2925237849.8099999</v>
       </c>
       <c r="F112" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>39028769955.299995</v>
       </c>
       <c r="G112" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>38694164319.169998</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H112">
+        <v>38336704864.25351</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>45383</v>
       </c>
@@ -5285,19 +8623,22 @@
         <v>3347740718.0100002</v>
       </c>
       <c r="E113" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>3347740718.0100002</v>
       </c>
       <c r="F113" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>38899265910.469994</v>
       </c>
       <c r="G113" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>38735189842.379997</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H113">
+        <v>38671484974.197357</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>45413</v>
       </c>
@@ -5305,91 +8646,111 @@
         <v>3634893744.9099998</v>
       </c>
       <c r="E114" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>3634893744.9099998</v>
       </c>
       <c r="F114" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>39045234936.590004</v>
       </c>
       <c r="G114" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>39045234936.590004</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H114">
+        <v>39006267790.193062</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>45444</v>
       </c>
       <c r="B115" s="8"/>
       <c r="E115" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="8">
         <v>0</v>
       </c>
       <c r="E116" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="8">
         <v>0</v>
       </c>
       <c r="E117" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="8">
         <v>0</v>
       </c>
       <c r="E118" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="8">
         <v>0</v>
       </c>
       <c r="E119" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="8">
         <v>0</v>
       </c>
       <c r="E120" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="8">
         <v>0</v>
       </c>
       <c r="E121" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="K12:L12"/>
+  </mergeCells>
+  <conditionalFormatting sqref="M14:M15">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
